--- a/poverty_measurement/output/infla_canasta_precios_implicitos.xlsx
+++ b/poverty_measurement/output/infla_canasta_precios_implicitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563365\GitHub\VEN\poverty_measurement\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\poverty_measurement\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F2F04B-0C03-406E-8AEF-14172ADD6D3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F4E8D4-BD45-40B9-92C9-F076F199B890}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65FFB4F2-0CEA-496F-890D-E872D3B56A38}"/>
   </bookViews>
@@ -31,15 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>month</t>
   </si>
   <si>
-    <t>valor_canasta</t>
+    <t>index</t>
   </si>
   <si>
-    <t>index</t>
+    <t xml:space="preserve">Valor canasta Diaria </t>
+  </si>
+  <si>
+    <t>Implicitos</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Encuesta</t>
   </si>
 </sst>
 </file>
@@ -75,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,78 +402,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0387658-5D0B-48DA-80BF-039E26D2652D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="2">
         <v>29147.3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>40.881309999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="D3" s="2">
+        <v>80212.377041053638</v>
+      </c>
+      <c r="E3" s="1">
+        <f>+(D3/$D$6)*100</f>
+        <v>96.423996288561995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="2">
         <v>34491.22</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>48.376559999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D4" s="2">
+        <v>67498.640897431833</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E7" si="0">+(D4/$D$6)*100</f>
+        <v>81.140703460836534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
         <v>70758.23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>99.243799999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D5" s="2">
+        <v>78722.806505354281</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>94.633370588337272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
         <v>71297.38</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="D6" s="2">
+        <v>83187.152709380694</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
         <v>75806.44</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>106.32429999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>81857.065480176578</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>98.401090570017629</v>
       </c>
     </row>
   </sheetData>
